--- a/Timekeeping Record.xlsx
+++ b/Timekeeping Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfv/Desktop/wadhwani/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C3EEAA0-1D8E-B546-9F8C-14FCACB82D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3E4BBB-EFB6-254F-91BE-251BD9659A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="On-Site" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Intern</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Refactored Raia's Code &amp; Did EDA on the AIOE and Complementarity</t>
+  </si>
+  <si>
+    <t>Wrote the Report</t>
   </si>
 </sst>
 </file>
@@ -287,20 +290,20 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,70 +656,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
@@ -941,39 +944,33 @@
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="4">
         <f>SUM(D10:D24)</f>
         <v>0.79861111111111116</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
       <c r="E32" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A31:C31"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A2:B2"/>
@@ -982,6 +979,12 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -991,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13AD5D7-44DD-4D2A-B953-A3FACA8959E6}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1005,70 +1008,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
@@ -1343,26 +1346,42 @@
       </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>45922</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="D23" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="13"/>
+        <v>0.10416666666666674</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>45922</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.375</v>
+      </c>
       <c r="D24" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="13"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1388,27 +1407,27 @@
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="3">
         <f>SUM(D10:D26)</f>
-        <v>1.4736111111111112</v>
+        <v>1.6194444444444447</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
       <c r="E34" s="1" t="s">
         <v>5</v>
       </c>

--- a/Timekeeping Record.xlsx
+++ b/Timekeeping Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfv/Desktop/wadhwani/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3E4BBB-EFB6-254F-91BE-251BD9659A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EB332E-BB36-EB45-8DE9-A11BF029020A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,20 +290,20 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,70 +656,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
@@ -944,33 +944,39 @@
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="4">
         <f>SUM(D10:D24)</f>
         <v>0.79861111111111116</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
       <c r="E32" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A2:B2"/>
@@ -979,12 +985,6 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -995,7 +995,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1008,70 +1008,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
@@ -1373,11 +1373,11 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C24" s="10">
-        <v>0.375</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>4.8611111111111105E-2</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>36</v>
@@ -1407,27 +1407,27 @@
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="3">
         <f>SUM(D10:D26)</f>
-        <v>1.6194444444444447</v>
+        <v>1.6263888888888891</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
       <c r="E34" s="1" t="s">
         <v>5</v>
       </c>

--- a/Timekeeping Record.xlsx
+++ b/Timekeeping Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfv/Desktop/wadhwani/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EB332E-BB36-EB45-8DE9-A11BF029020A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0B2BE3-55FF-4244-BF3A-196769EF0D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="On-Site" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>Intern</t>
   </si>
@@ -148,13 +148,19 @@
   </si>
   <si>
     <t>Wrote the Report</t>
+  </si>
+  <si>
+    <t>Total ONSITE Hours Rendered</t>
+  </si>
+  <si>
+    <t>Total ONLINE Hours Rendered</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +185,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF080808"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
@@ -254,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -290,21 +302,41 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="75" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -656,70 +688,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17" t="s">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
@@ -944,39 +976,55 @@
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
+      <c r="A25" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="4">
         <f>SUM(D10:D24)</f>
         <v>0.79861111111111116</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22">
+        <f>Online!D34</f>
+        <v>1.154166666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="4">
+        <f>SUM(D25:D26)</f>
+        <v>1.9527777777777782</v>
+      </c>
+    </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
       <c r="E32" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A31:C31"/>
+  <mergeCells count="16">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A2:B2"/>
@@ -985,6 +1033,14 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -992,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13AD5D7-44DD-4D2A-B953-A3FACA8959E6}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1008,70 +1064,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17" t="s">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
@@ -1128,7 +1184,7 @@
         <v>0.625</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" ref="D11:D26" si="0">(C11-B11)</f>
+        <f t="shared" ref="D11:D33" si="0">(C11-B11)</f>
         <v>3.472222222222221E-2</v>
       </c>
       <c r="E11" s="13" t="s">
@@ -1332,14 +1388,14 @@
         <v>45921</v>
       </c>
       <c r="B22" s="10">
-        <v>2.0833333333333332E-2</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="C22" s="10">
         <v>0.72916666666666663</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="0"/>
-        <v>0.70833333333333326</v>
+        <v>0.20833333333333326</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>35</v>
@@ -1384,59 +1440,169 @@
       </c>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+    <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>45922</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.88194444444444453</v>
+      </c>
       <c r="D25" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="8"/>
+        <f t="shared" ref="D25:D33" si="1">(C25-B25)</f>
+        <v>2.7777777777777901E-2</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="3">
+        <f>SUM(D10:D33)</f>
+        <v>1.154166666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="4">
+        <f>'On-Site'!D25</f>
+        <v>0.79861111111111116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="3">
-        <f>SUM(D10:D26)</f>
-        <v>1.6263888888888891</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="27">
+        <f>SUM(D34:D35)</f>
+        <v>1.9527777777777782</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="E34" s="1" t="s">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="E41" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
@@ -1446,8 +1612,10 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Timekeeping Record.xlsx
+++ b/Timekeeping Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfv/Desktop/wadhwani/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0B2BE3-55FF-4244-BF3A-196769EF0D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F741AF21-FD8C-5D48-8255-B8F8A832676B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="On-Site" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>Intern</t>
   </si>
@@ -154,12 +154,18 @@
   </si>
   <si>
     <t>Total ONLINE Hours Rendered</t>
+  </si>
+  <si>
+    <t>Gave Comments and Tried to Improve the Report of the EDCOM People</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="[h]:mm"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,41 +308,42 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -688,70 +695,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16" t="s">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
@@ -846,7 +853,7 @@
         <v>0.97569444444444453</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" si="0"/>
+        <f>C13-B13</f>
         <v>0.4340277777777779</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -857,7 +864,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="8"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -976,55 +983,63 @@
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="4">
         <f>SUM(D10:D24)</f>
         <v>0.79861111111111116</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="28">
         <f>Online!D34</f>
-        <v>1.154166666666667</v>
+        <v>1.185416666666667</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="4">
-        <f>SUM(D25:D26)</f>
-        <v>1.9527777777777782</v>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="26">
+        <f>D25+D26</f>
+        <v>1.9840277777777782</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
       <c r="E32" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A2:B2"/>
@@ -1033,14 +1048,6 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1050,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13AD5D7-44DD-4D2A-B953-A3FACA8959E6}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A13" zoomScale="93" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1064,70 +1071,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16" t="s">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
@@ -1451,7 +1458,7 @@
         <v>0.88194444444444453</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" ref="D25:D33" si="1">(C25-B25)</f>
+        <f t="shared" ref="D25:D32" si="1">(C25-B25)</f>
         <v>2.7777777777777901E-2</v>
       </c>
       <c r="E25" s="13" t="s">
@@ -1459,15 +1466,23 @@
       </c>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+    <row r="26" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>45923</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D26" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="13"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1500,7 +1515,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1537,9 +1552,9 @@
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1548,52 +1563,52 @@
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="3">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="26">
         <f>SUM(D10:D33)</f>
-        <v>1.154166666666667</v>
+        <v>1.185416666666667</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="4">
         <f>'On-Site'!D25</f>
         <v>0.79861111111111116</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="27">
         <f>SUM(D34:D35)</f>
-        <v>1.9527777777777782</v>
+        <v>1.9840277777777782</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D37" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
       <c r="E41" s="1" t="s">
         <v>5</v>
       </c>
